--- a/Assets/Economy/MiddleRegion.xlsx
+++ b/Assets/Economy/MiddleRegion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity projects\Merchant\Merchant\Assets\Economy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEBD92C-2976-4557-AFE3-50084107C77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3504B880-7E2E-4DEA-847B-0280DEB89519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,9 +441,6 @@
     <t>Суши агутанами</t>
   </si>
   <si>
-    <t>Суши с красной рыбой</t>
-  </si>
-  <si>
     <t>Сыр</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Суши красная рыба</t>
   </si>
 </sst>
 </file>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="T163" sqref="T163"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,13 +890,13 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" t="s">
         <v>163</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>164</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -913,31 +913,31 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" t="s">
         <v>166</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="L2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" t="s">
         <v>166</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="Q2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R2" t="s">
         <v>166</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -5513,7 +5513,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B136">
         <v>48</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B137">
         <v>70</v>
@@ -5541,7 +5541,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B138">
         <v>96</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B139">
         <v>82</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B140">
         <v>36</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141">
         <v>24</v>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B142">
         <v>42</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B143">
         <v>30</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B144">
         <v>102</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B145">
         <v>80</v>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B146">
         <v>24</v>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B147">
         <v>60</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148">
         <v>66</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B149">
         <v>30</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B150">
         <v>66</v>
@@ -5723,7 +5723,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B151">
         <v>36</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B152">
         <v>72</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B153">
         <v>30</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B154">
         <v>30</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B155">
         <v>36</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B156">
         <v>35</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B157">
         <v>36</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B158">
         <v>30</v>
@@ -5835,7 +5835,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B159">
         <v>54</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B160">
         <v>86</v>
